--- a/data-folder/Données_groupe_06.xlsx
+++ b/data-folder/Données_groupe_06.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jean\MIASHS\Projet\Fichiers_2025new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18570" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="données06" sheetId="2" r:id="rId1"/>
@@ -520,13 +520,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>14.85</v>
+        <v>12.889999999999999</v>
       </c>
       <c r="B18">
         <v>87</v>
       </c>
       <c r="C18">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,13 +542,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>55.04</v>
+        <v>22.009999999999998</v>
       </c>
       <c r="B20">
         <v>106</v>
       </c>
       <c r="C20">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,13 +564,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>60.33</v>
+        <v>35.510000000000005</v>
       </c>
       <c r="B22">
         <v>99</v>
       </c>
       <c r="C22">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,13 +597,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>11.85</v>
+        <v>9.9599999999999991</v>
       </c>
       <c r="B25">
         <v>97</v>
       </c>
       <c r="C25">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,13 +652,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>11.709999999999999</v>
+        <v>9.85</v>
       </c>
       <c r="B30">
         <v>89</v>
       </c>
       <c r="C30">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,13 +740,13 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>26.479999999999997</v>
+        <v>16.32</v>
       </c>
       <c r="B38">
         <v>103</v>
       </c>
       <c r="C38">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,13 +762,13 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>50.339999999999996</v>
+        <v>22.54</v>
       </c>
       <c r="B40">
         <v>105</v>
       </c>
       <c r="C40">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,13 +817,13 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>56.499999999999993</v>
+        <v>11.59</v>
       </c>
       <c r="B45">
         <v>115</v>
       </c>
       <c r="C45">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,24 +850,24 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>72.2</v>
+        <v>47.65</v>
       </c>
       <c r="B48">
         <v>95</v>
       </c>
       <c r="C48">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>57.499999999999993</v>
+        <v>24.47</v>
       </c>
       <c r="B49">
         <v>107</v>
       </c>
       <c r="C49">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,24 +883,24 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>94.699999999999989</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="B51">
         <v>97</v>
       </c>
       <c r="C51">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>9.7199999999999989</v>
+        <v>4.22</v>
       </c>
       <c r="B52">
         <v>110</v>
       </c>
       <c r="C52">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,13 +949,13 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>22.46</v>
+        <v>12.64</v>
       </c>
       <c r="B57">
         <v>107</v>
       </c>
       <c r="C57">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,13 +1015,13 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>86.31</v>
+        <v>51.519999999999996</v>
       </c>
       <c r="B63">
         <v>97</v>
       </c>
       <c r="C63">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,13 +1070,13 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>19.21</v>
+        <v>11.28</v>
       </c>
       <c r="B68">
         <v>100</v>
       </c>
       <c r="C68">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
